--- a/ProbabilityAndStatistics/p3/ProbStat3erParcialResumen.xlsx
+++ b/ProbabilityAndStatistics/p3/ProbStat3erParcialResumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Escritorio\ULSA-6th-Semester\ProbabilityAndStatistics\p3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FE86B9-3E4C-431A-97DC-042F51CF750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872D7EC3-A060-4ED4-BFC0-C1C293D7C561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A7CEFB8-CD8C-46AD-89CD-D7093D6E6BC1}"/>
   </bookViews>
@@ -639,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -688,6 +688,29 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -710,30 +733,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1762,16 +1761,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>534942</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>86386</xdr:rowOff>
+      <xdr:colOff>49167</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>67336</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1794,7 +1793,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="495300"/>
+          <a:off x="5229225" y="857250"/>
           <a:ext cx="11050542" cy="4734586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2179,15 +2178,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>73268</xdr:colOff>
+      <xdr:colOff>80595</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>43963</xdr:rowOff>
+      <xdr:rowOff>21982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>436013</xdr:colOff>
+      <xdr:colOff>443340</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>34516</xdr:rowOff>
+      <xdr:rowOff>12535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2210,7 +2209,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7693268" y="5187463"/>
+          <a:off x="7700595" y="5165482"/>
           <a:ext cx="5696745" cy="562053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2848,7 +2847,7 @@
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2857,137 +2856,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K30" s="4"/>
@@ -2997,6 +2996,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3027,58 +3027,58 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -3294,10 +3294,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="8">
         <f>SUM(M8:M10)</f>
         <v>0.25</v>
@@ -3338,74 +3338,74 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3634,7 +3634,7 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3647,92 +3647,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3746,10 +3746,10 @@
       <c r="B12" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="44"/>
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3932,16 +3932,16 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="43"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="33"/>
+      <c r="B40" s="44"/>
       <c r="D40" t="s">
         <v>54</v>
       </c>
@@ -4120,10 +4120,10 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="32"/>
+      <c r="B67" s="43"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O70" s="4"/>
@@ -4276,7 +4276,7 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4286,58 +4286,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -5009,61 +5009,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC6AEF-EFC9-4059-87C0-982A7AD2741E}">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5127,13 +5127,13 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -5402,54 +5402,54 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5458,14 +5458,14 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="28">
         <f>_xlfn.NEGBINOM.DIST(G6-1,1,$J$6,FALSE)</f>
         <v>0.42</v>
       </c>
       <c r="I6" t="s">
         <v>123</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="29">
         <v>0.42</v>
       </c>
     </row>
@@ -5473,20 +5473,20 @@
       <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="28">
         <f t="shared" ref="H7:H26" si="0">_xlfn.NEGBINOM.DIST(G7-1,1,$J$6,FALSE)</f>
         <v>0.24360000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="31">
         <f>SUM(H6:H8)</f>
         <v>0.80488800000000005</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="28">
         <f t="shared" si="0"/>
         <v>0.14128800000000002</v>
       </c>
@@ -5495,52 +5495,43 @@
       <c r="G9" s="3">
         <v>4</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="28">
         <f t="shared" si="0"/>
         <v>8.1947040000000013E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="28">
         <f t="shared" si="0"/>
         <v>4.7529283200000008E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="3">
         <v>6</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="28">
         <f t="shared" si="0"/>
         <v>2.7566984256000016E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="31">
         <f>SUM(H6:H7)</f>
         <v>0.66359999999999997</v>
       </c>
       <c r="G12" s="3">
         <v>7</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="28">
         <f t="shared" si="0"/>
         <v>1.5988850868480006E-2</v>
       </c>
@@ -5549,7 +5540,7 @@
       <c r="G13" s="3">
         <v>8</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="28">
         <f t="shared" si="0"/>
         <v>9.2735335037184043E-3</v>
       </c>
@@ -5561,7 +5552,7 @@
       <c r="G14" s="3">
         <v>9</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="28">
         <f t="shared" si="0"/>
         <v>5.3786494321566769E-3</v>
       </c>
@@ -5570,20 +5561,20 @@
       <c r="G15" s="3">
         <v>10</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="28">
         <f t="shared" si="0"/>
         <v>3.1196166706508738E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+      <c r="A16" s="31">
         <f>H8</f>
         <v>0.14128800000000002</v>
       </c>
       <c r="G16" s="3">
         <v>11</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="28">
         <f t="shared" si="0"/>
         <v>1.8093776689775067E-3</v>
       </c>
@@ -5592,7 +5583,7 @@
       <c r="G17" s="3">
         <v>12</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="28">
         <f t="shared" si="0"/>
         <v>1.049439048006954E-3</v>
       </c>
@@ -5604,7 +5595,7 @@
       <c r="G18" s="3">
         <v>13</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="28">
         <f t="shared" si="0"/>
         <v>6.08674647844033E-4</v>
       </c>
@@ -5614,20 +5605,20 @@
       <c r="G19" s="3">
         <v>14</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="28">
         <f t="shared" si="0"/>
         <v>3.5303129574953913E-4</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="A20" s="31">
         <f>SUM(H9:H11)</f>
         <v>0.15704330745600004</v>
       </c>
       <c r="G20" s="3">
         <v>15</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="28">
         <f t="shared" si="0"/>
         <v>2.0475815153473279E-4</v>
       </c>
@@ -5636,7 +5627,7 @@
       <c r="G21" s="3">
         <v>16</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="28">
         <f t="shared" si="0"/>
         <v>1.1875972789014504E-4</v>
       </c>
@@ -5648,7 +5639,7 @@
       <c r="G22" s="3">
         <v>17</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="28">
         <f t="shared" si="0"/>
         <v>6.8880642176284145E-5</v>
       </c>
@@ -5658,7 +5649,7 @@
       <c r="G23" s="3">
         <v>18</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="28">
         <f t="shared" si="0"/>
         <v>3.9950772462244792E-5</v>
       </c>
@@ -5667,14 +5658,14 @@
       <c r="A24" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="32">
         <f>SUM(H6:H10)</f>
         <v>0.93436432320000007</v>
       </c>
       <c r="G24" s="3">
         <v>19</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="28">
         <f t="shared" si="0"/>
         <v>2.3171448028101986E-5</v>
       </c>
@@ -5683,7 +5674,7 @@
       <c r="G25" s="3">
         <v>20</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="28">
         <f t="shared" si="0"/>
         <v>1.3439439856299156E-5</v>
       </c>
@@ -5701,14 +5692,14 @@
         <f>1-B26</f>
         <v>1.2806308171801617E-2</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="33">
         <f>C26</f>
         <v>1.2806308171801617E-2</v>
       </c>
       <c r="G26" s="3">
         <v>21</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="28">
         <f t="shared" si="0"/>
         <v>7.7948751166535135E-6</v>
       </c>
@@ -5717,7 +5708,7 @@
       <c r="A28" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="31">
         <f>B24+D26</f>
         <v>0.94717063137180169</v>
       </c>
